--- a/biology/Botanique/Sansevieria_eilensis/Sansevieria_eilensis.xlsx
+++ b/biology/Botanique/Sansevieria_eilensis/Sansevieria_eilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria eilensis, également appelée Dracaena eilensis[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria eilensis, également appelée Dracaena eilensis, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria eilensis est l'une des espèces de sansevières dites naines[2], avec des feuilles elliptiques (en général deux à trois, de 7 à 12 cm de longueur) présentant un sillon très marqué allant jusqu'au repliement lorsque la plante est jeune, de couleur bleu-vert avec des bandes régulières de vert-clair à blanc[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria eilensis est l'une des espèces de sansevières dites naines, avec des feuilles elliptiques (en général deux à trois, de 7 à 12 cm de longueur) présentant un sillon très marqué allant jusqu'au repliement lorsque la plante est jeune, de couleur bleu-vert avec des bandes régulières de vert-clair à blanc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire des zones arides (moins de 100 mm de précipitations annuelles) de la Corne de l'Afrique, en particulier de la Somalie où elle a été collectée en 1973 par le botaniste John Jacob Lavranos dans la région de la ville d'Eyl, qui lui donne son nom, puis identifiée comme espèce à part entière en 1995 par Juan Chahinian[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire des zones arides (moins de 100 mm de précipitations annuelles) de la Corne de l'Afrique, en particulier de la Somalie où elle a été collectée en 1973 par le botaniste John Jacob Lavranos dans la région de la ville d'Eyl, qui lui donne son nom, puis identifiée comme espèce à part entière en 1995 par Juan Chahinian.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
